--- a/Esercizio D6.xlsx
+++ b/Esercizio D6.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emanuele\OneDrive\Desktop\EPICODE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emanuele\OneDrive\Desktop\Epicode Exercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D90CCB0-A8CA-46C1-9B3C-8CE063792DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7468B29A-B9C2-487C-8161-D734F3959A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{4A162F02-F575-4ABC-A061-4967F2DE3C56}"/>
   </bookViews>
@@ -429,7 +429,7 @@
     <t>Transazioni</t>
   </si>
   <si>
-    <t>Come Posso creare una funzione che mi permetta di evitare di selezionale la data selezionata di questo libro che è ancora in prestito??</t>
+    <t>Come Posso creare una funzione che mi permetta di evitare di selezionare  un libro che è ancora in prestito??</t>
   </si>
 </sst>
 </file>
@@ -497,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -509,14 +509,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -525,6 +521,9 @@
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -856,34 +855,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1155,34 +1154,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1428,34 +1427,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1821,7 +1820,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1837,40 +1836,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="6"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M3" s="11">
+      <c r="M3" s="9">
         <f ca="1">NOW()</f>
-        <v>45098.801779166664</v>
+        <v>45098.84011365741</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1901,21 +1900,21 @@
         <f>Dipendente!A5</f>
         <v>101</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <f>Libri!A10</f>
         <v>6</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5">
         <v>208</v>
       </c>
       <c r="D5" s="4">
         <v>45098</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <f>D5+30</f>
         <v>45128</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>1</v>
       </c>
       <c r="I5" s="2"/>
@@ -1925,20 +1924,20 @@
         <f>Dipendente!A6</f>
         <v>102</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>11</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6">
         <v>206</v>
       </c>
       <c r="D6" s="4">
         <v>45028</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <f t="shared" ref="E6:E15" si="0">D6+30</f>
         <v>45058</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>1</v>
       </c>
       <c r="I6" s="2"/>
@@ -1948,20 +1947,20 @@
         <f>Dipendente!A7</f>
         <v>103</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>4</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7">
         <v>208</v>
       </c>
       <c r="D7" s="4">
         <v>44970</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <f t="shared" si="0"/>
         <v>45000</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>1</v>
       </c>
       <c r="I7" s="2"/>
@@ -1971,21 +1970,21 @@
         <f>Dipendente!A8</f>
         <v>104</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <v>6</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8">
         <v>200</v>
       </c>
       <c r="D8" s="4">
         <v>45122</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <f t="shared" si="0"/>
         <v>45152</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="12" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="10" t="s">
         <v>129</v>
       </c>
       <c r="I8" s="2"/>
@@ -1995,14 +1994,13 @@
         <f>Dipendente!A9</f>
         <v>105</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="8"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="6"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -2010,14 +2008,13 @@
         <f>Dipendente!A10</f>
         <v>106</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="8"/>
+      <c r="B10" s="8"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="6"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2025,14 +2022,13 @@
         <f>Dipendente!A11</f>
         <v>107</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="8"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="6"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -2040,14 +2036,13 @@
         <f>Dipendente!A12</f>
         <v>108</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="8"/>
+      <c r="B12" s="8"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="6"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -2055,14 +2050,13 @@
         <f>Dipendente!A13</f>
         <v>109</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="8"/>
+      <c r="B13" s="8"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="6"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -2070,14 +2064,13 @@
         <f>Dipendente!A14</f>
         <v>110</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="8"/>
+      <c r="B14" s="8"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="6"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -2085,14 +2078,13 @@
         <f>Dipendente!A15</f>
         <v>111</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="8"/>
+      <c r="B15" s="8"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="6"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -2131,34 +2123,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2182,7 +2174,7 @@
         <f>Cliente!E5</f>
         <v>632-6</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5">
         <f>SUMIFS(Gestionale!F5:F15,Gestionale!C5:C15,200)</f>
         <v>0</v>
       </c>
@@ -2196,7 +2188,7 @@
         <f>Cliente!E6</f>
         <v>698-4</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6">
         <f>SUMIFS(Gestionale!F5:F15,Gestionale!C5:C15,201)</f>
         <v>0</v>
       </c>
@@ -2210,7 +2202,7 @@
         <f>Cliente!E7</f>
         <v>699-6</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7">
         <f>SUMIFS(Gestionale!F5:F15,Gestionale!C5:C15,202)</f>
         <v>0</v>
       </c>
@@ -2224,7 +2216,7 @@
         <f>Cliente!E8</f>
         <v>611-3</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8">
         <f>SUMIFS(Gestionale!F5:F15,Gestionale!C5:C15,203)</f>
         <v>0</v>
       </c>
@@ -2238,7 +2230,7 @@
         <f>Cliente!E9</f>
         <v>685-8</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9">
         <f>SUMIFS(Gestionale!F5:F15,Gestionale!C5:C15,204)</f>
         <v>0</v>
       </c>
@@ -2252,7 +2244,7 @@
         <f>Cliente!E10</f>
         <v>325-4</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10">
         <f>SUMIFS(Gestionale!F5:F15,Gestionale!C5:C15,205)</f>
         <v>0</v>
       </c>
@@ -2280,7 +2272,7 @@
         <f>Cliente!E12</f>
         <v>601-0</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12">
         <f>SUMIFS(Gestionale!F5:F15,Gestionale!C5:C15,207)</f>
         <v>0</v>
       </c>
@@ -2294,7 +2286,7 @@
         <f>Cliente!E13</f>
         <v>602-9</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13">
         <f>SUMIFS(Gestionale!F5:F15,Gestionale!C5:C15,208)</f>
         <v>2</v>
       </c>
@@ -2308,7 +2300,7 @@
         <f>Cliente!E14</f>
         <v>644-6</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14">
         <f>SUMIFS(Gestionale!F5:F15,Gestionale!C5:C15,209)</f>
         <v>0</v>
       </c>
@@ -2322,7 +2314,7 @@
         <f>Cliente!E15</f>
         <v>698-3</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15">
         <f>SUMIFS(Gestionale!F5:F15,Gestionale!C5:C15,210)</f>
         <v>0</v>
       </c>
